--- a/Backend/database/Censo 2022 - Uso de internet dentro do domicílio - SJC e Brasil.xlsx
+++ b/Backend/database/Censo 2022 - Uso de internet dentro do domicílio - SJC e Brasil.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Downloads\Fatec\API\1 Semestre\tabelas\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AE6DF8-BAC3-4D24-B989-394865D56AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A731EAF-25BA-4B0C-A8B1-CD4E4ECBACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16710" yWindow="3690" windowWidth="21600" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Uso de internet</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>Fonte: censo2022.ibge.gov.br/panorama</t>
-  </si>
-  <si>
-    <t>Recorte Geográfico</t>
   </si>
   <si>
     <t>86,35</t>
@@ -111,9 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -470,7 +471,7 @@
     <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +490,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -510,7 +514,7 @@
         <v>3549904</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -531,51 +535,35 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62571741</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9889631</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>62571741</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9889631</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -583,4 +571,56 @@
     <ignoredError sqref="A1:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303EC3A7-5F1D-47B8-AC3D-D8DEDBC7DEB6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>86.35</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>93.58</v>
+      </c>
+      <c r="C3">
+        <v>6.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>